--- a/archivos/RTrasiegoVaciados.xlsx
+++ b/archivos/RTrasiegoVaciados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Nicaragua\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BF3D3E-BAD0-414A-B427-AC80E276B0C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62073B72-7355-45A6-8E39-649C5230B0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -214,13 +214,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>275760</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
@@ -236,13 +236,20 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19080" y="0"/>
-          <a:ext cx="2765520" cy="804600"/>
+          <a:off x="28575" y="0"/>
+          <a:ext cx="2790825" cy="804825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -556,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:G8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/archivos/RTrasiegoVaciados.xlsx
+++ b/archivos/RTrasiegoVaciados.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Nicaragua\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62073B72-7355-45A6-8E39-649C5230B0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F442567B-70B7-4EBE-872D-A3723D4B543F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Trazabilidad de Barriles y Rones Envejecidos</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Fecha:</t>
+  </si>
+  <si>
+    <t>Firma</t>
   </si>
 </sst>
 </file>
@@ -82,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -90,11 +93,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -123,6 +144,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F164" sqref="F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,15 +1581,17 @@
     </row>
     <row r="160" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="13"/>
     </row>
     <row r="161" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
-      <c r="F161" s="6"/>
-      <c r="G161" s="6"/>
+      <c r="E161" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F161" s="14"/>
+      <c r="G161" s="14"/>
     </row>
     <row r="162" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D162" s="6"/>
@@ -6659,7 +6688,8 @@
       <c r="G1010" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="E161:G161"/>
     <mergeCell ref="F1:I4"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="H5:I5"/>
